--- a/scheduleproject.xlsx
+++ b/scheduleproject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jguth\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84EA4015-D397-4677-B277-6C25BE5C61D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4A849A-C7D3-4428-86C7-FB8134856D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C919EE0-622F-4260-A38F-9DABB8DACA16}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
   <si>
     <t xml:space="preserve">INITIALS </t>
   </si>
@@ -152,10 +152,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -455,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B9EAC3-DE8B-42F1-996F-A46DE66048AB}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,12 +649,146 @@
         <v>20</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45181</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45181</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45182</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45183</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45183</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45187</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45187</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45188</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="8fc0f979-4ce7-4f51-8f24-f23f93ec50b5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009D15853AF706264DAA4166C43F5ED2B0" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bed3d555a0f28a45e6f25b29a76e2fcb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8fc0f979-4ce7-4f51-8f24-f23f93ec50b5" xmlns:ns4="cf9aa1d4-21a7-43b9-af6e-e802694013ec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8a37d90f48262204bb7b1e66e5363c2f" ns3:_="" ns4:_="">
     <xsd:import namespace="8fc0f979-4ce7-4f51-8f24-f23f93ec50b5"/>
@@ -841,24 +971,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65E59574-6B62-4F9B-A3B4-D1246BBFCDA2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="cf9aa1d4-21a7-43b9-af6e-e802694013ec"/>
+    <ds:schemaRef ds:uri="8fc0f979-4ce7-4f51-8f24-f23f93ec50b5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="8fc0f979-4ce7-4f51-8f24-f23f93ec50b5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E3BEA43-C746-43AC-B49C-51A417C780EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE0724C8-3421-47A6-99BE-14D433224432}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -875,29 +1013,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E3BEA43-C746-43AC-B49C-51A417C780EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65E59574-6B62-4F9B-A3B4-D1246BBFCDA2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="cf9aa1d4-21a7-43b9-af6e-e802694013ec"/>
-    <ds:schemaRef ds:uri="8fc0f979-4ce7-4f51-8f24-f23f93ec50b5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/scheduleproject.xlsx
+++ b/scheduleproject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jguth\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4A849A-C7D3-4428-86C7-FB8134856D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB4A8EB-A7FE-407F-8E85-710D4503CC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C919EE0-622F-4260-A38F-9DABB8DACA16}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
   <si>
     <t xml:space="preserve">INITIALS </t>
   </si>
@@ -99,6 +99,24 @@
   </si>
   <si>
     <t>Merton documentary</t>
+  </si>
+  <si>
+    <t>Matplotlib</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Test in testing center</t>
+  </si>
+  <si>
+    <t>Dataset work with matplotlib</t>
+  </si>
+  <si>
+    <t>band</t>
+  </si>
+  <si>
+    <t>Stats quiz</t>
   </si>
 </sst>
 </file>
@@ -451,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B9EAC3-DE8B-42F1-996F-A46DE66048AB}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -719,7 +737,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -733,7 +751,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -747,7 +765,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -761,9 +779,142 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45189</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45189</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45190</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45190</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>45194</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45194</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45195</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45195</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>75</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>45195</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>90</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -772,23 +923,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="8fc0f979-4ce7-4f51-8f24-f23f93ec50b5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009D15853AF706264DAA4166C43F5ED2B0" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bed3d555a0f28a45e6f25b29a76e2fcb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8fc0f979-4ce7-4f51-8f24-f23f93ec50b5" xmlns:ns4="cf9aa1d4-21a7-43b9-af6e-e802694013ec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8a37d90f48262204bb7b1e66e5363c2f" ns3:_="" ns4:_="">
     <xsd:import namespace="8fc0f979-4ce7-4f51-8f24-f23f93ec50b5"/>
@@ -971,32 +1105,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65E59574-6B62-4F9B-A3B4-D1246BBFCDA2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="cf9aa1d4-21a7-43b9-af6e-e802694013ec"/>
-    <ds:schemaRef ds:uri="8fc0f979-4ce7-4f51-8f24-f23f93ec50b5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E3BEA43-C746-43AC-B49C-51A417C780EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="8fc0f979-4ce7-4f51-8f24-f23f93ec50b5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE0724C8-3421-47A6-99BE-14D433224432}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1013,4 +1139,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E3BEA43-C746-43AC-B49C-51A417C780EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65E59574-6B62-4F9B-A3B4-D1246BBFCDA2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="cf9aa1d4-21a7-43b9-af6e-e802694013ec"/>
+    <ds:schemaRef ds:uri="8fc0f979-4ce7-4f51-8f24-f23f93ec50b5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>